--- a/Excel-XLSX/UN-ARM.xlsx
+++ b/Excel-XLSX/UN-ARM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="552">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0ACCr4</t>
+    <t>uQM9OV</t>
   </si>
   <si>
     <t>1992</t>
@@ -1524,15 +1524,30 @@
     <t>280</t>
   </si>
   <si>
-    <t>140881</t>
+    <t>137147</t>
   </si>
   <si>
     <t>281</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
     <t>282</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
     <t>283</t>
   </si>
   <si>
@@ -1545,6 +1560,12 @@
     <t>286</t>
   </si>
   <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -1554,27 +1575,24 @@
     <t>DEU</t>
   </si>
   <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
     <t>289</t>
   </si>
   <si>
     <t>290</t>
   </si>
   <si>
-    <t>1181</t>
-  </si>
-  <si>
     <t>291</t>
   </si>
   <si>
+    <t>298</t>
+  </si>
+  <si>
     <t>292</t>
   </si>
   <si>
+    <t>1197</t>
+  </si>
+  <si>
     <t>293</t>
   </si>
   <si>
@@ -1590,15 +1608,24 @@
     <t>297</t>
   </si>
   <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
     <t>299</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1608,28 +1635,43 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>4911</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
     <t>304</t>
   </si>
   <si>
-    <t>671</t>
+    <t>4916</t>
   </si>
   <si>
     <t>305</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>310</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2056,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V306"/>
+  <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -20899,10 +20941,10 @@
         <v>30</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P278" s="2" t="s">
         <v>32</v>
@@ -20970,7 +21012,7 @@
         <v>32</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="P279" s="2" t="s">
         <v>32</v>
@@ -21035,10 +21077,10 @@
         <v>30</v>
       </c>
       <c r="N280" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="P280" s="2" t="s">
         <v>32</v>
@@ -21147,16 +21189,16 @@
         <v>498</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>216</v>
+        <v>504</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>217</v>
+        <v>505</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>218</v>
+        <v>505</v>
       </c>
       <c r="J282" s="2" t="s">
         <v>28</v>
@@ -21174,7 +21216,7 @@
         <v>44</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P282" s="2" t="s">
         <v>32</v>
@@ -21209,22 +21251,22 @@
         <v>22</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="J283" s="2" t="s">
         <v>28</v>
@@ -21239,10 +21281,10 @@
         <v>30</v>
       </c>
       <c r="N283" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O283" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P283" s="2" t="s">
         <v>32</v>
@@ -21277,22 +21319,22 @@
         <v>22</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="J284" s="2" t="s">
         <v>28</v>
@@ -21310,7 +21352,7 @@
         <v>44</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="P284" s="2" t="s">
         <v>32</v>
@@ -21345,22 +21387,22 @@
         <v>22</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>197</v>
+        <v>461</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>198</v>
+        <v>462</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>199</v>
+        <v>462</v>
       </c>
       <c r="J285" s="2" t="s">
         <v>28</v>
@@ -21375,7 +21417,7 @@
         <v>30</v>
       </c>
       <c r="N285" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O285" s="2" t="s">
         <v>32</v>
@@ -21413,22 +21455,22 @@
         <v>22</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="J286" s="2" t="s">
         <v>28</v>
@@ -21443,10 +21485,10 @@
         <v>30</v>
       </c>
       <c r="N286" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O286" s="2" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="P286" s="2" t="s">
         <v>32</v>
@@ -21481,22 +21523,22 @@
         <v>22</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>509</v>
+        <v>197</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>28</v>
@@ -21511,10 +21553,10 @@
         <v>30</v>
       </c>
       <c r="N287" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P287" s="2" t="s">
         <v>32</v>
@@ -21549,22 +21591,22 @@
         <v>22</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>422</v>
+        <v>41</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="J288" s="2" t="s">
         <v>28</v>
@@ -21579,10 +21621,10 @@
         <v>30</v>
       </c>
       <c r="N288" s="2" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>32</v>
@@ -21617,22 +21659,22 @@
         <v>22</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>203</v>
+        <v>516</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>204</v>
+        <v>517</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>205</v>
+        <v>518</v>
       </c>
       <c r="J289" s="2" t="s">
         <v>28</v>
@@ -21647,10 +21689,10 @@
         <v>30</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>32</v>
@@ -21685,22 +21727,22 @@
         <v>22</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>55</v>
+        <v>422</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>56</v>
+        <v>424</v>
       </c>
       <c r="J290" s="2" t="s">
         <v>28</v>
@@ -21715,10 +21757,10 @@
         <v>30</v>
       </c>
       <c r="N290" s="2" t="s">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>374</v>
+        <v>50</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>32</v>
@@ -21753,22 +21795,22 @@
         <v>22</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="J291" s="2" t="s">
         <v>28</v>
@@ -21783,10 +21825,10 @@
         <v>30</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>516</v>
+        <v>47</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>32</v>
@@ -21821,22 +21863,22 @@
         <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="J292" s="2" t="s">
         <v>28</v>
@@ -21851,10 +21893,10 @@
         <v>30</v>
       </c>
       <c r="N292" s="2" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>47</v>
+        <v>522</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>32</v>
@@ -21889,22 +21931,22 @@
         <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>475</v>
+        <v>97</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>476</v>
+        <v>98</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>476</v>
+        <v>98</v>
       </c>
       <c r="J293" s="2" t="s">
         <v>28</v>
@@ -21919,10 +21961,10 @@
         <v>30</v>
       </c>
       <c r="N293" s="2" t="s">
-        <v>32</v>
+        <v>524</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>44</v>
+        <v>443</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>32</v>
@@ -21957,22 +21999,22 @@
         <v>22</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>478</v>
+        <v>134</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>479</v>
+        <v>135</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="J294" s="2" t="s">
         <v>28</v>
@@ -21990,7 +22032,7 @@
         <v>32</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>32</v>
@@ -22025,22 +22067,22 @@
         <v>22</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="J295" s="2" t="s">
         <v>28</v>
@@ -22055,10 +22097,10 @@
         <v>30</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>32</v>
@@ -22093,22 +22135,22 @@
         <v>22</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="J296" s="2" t="s">
         <v>28</v>
@@ -22123,10 +22165,10 @@
         <v>30</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="P296" s="2" t="s">
         <v>32</v>
@@ -22161,22 +22203,22 @@
         <v>22</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="J297" s="2" t="s">
         <v>28</v>
@@ -22191,10 +22233,10 @@
         <v>30</v>
       </c>
       <c r="N297" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P297" s="2" t="s">
         <v>32</v>
@@ -22229,22 +22271,22 @@
         <v>22</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>58</v>
+        <v>287</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>59</v>
+        <v>478</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>60</v>
+        <v>479</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="J298" s="2" t="s">
         <v>28</v>
@@ -22259,10 +22301,10 @@
         <v>30</v>
       </c>
       <c r="N298" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O298" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="O298" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>32</v>
@@ -22297,22 +22339,22 @@
         <v>22</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>188</v>
+        <v>403</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="J299" s="2" t="s">
         <v>28</v>
@@ -22327,7 +22369,7 @@
         <v>30</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O299" s="2" t="s">
         <v>32</v>
@@ -22342,7 +22384,7 @@
         <v>32</v>
       </c>
       <c r="S299" s="2" t="s">
-        <v>525</v>
+        <v>32</v>
       </c>
       <c r="T299" s="2" t="s">
         <v>32</v>
@@ -22365,22 +22407,22 @@
         <v>22</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>527</v>
+        <v>336</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>528</v>
+        <v>337</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>529</v>
+        <v>338</v>
       </c>
       <c r="J300" s="2" t="s">
         <v>28</v>
@@ -22395,7 +22437,7 @@
         <v>30</v>
       </c>
       <c r="N300" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="O300" s="2" t="s">
         <v>32</v>
@@ -22433,22 +22475,22 @@
         <v>22</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>112</v>
+        <v>434</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>113</v>
+        <v>435</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>113</v>
+        <v>435</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>28</v>
@@ -22463,10 +22505,10 @@
         <v>30</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>531</v>
+        <v>53</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="P301" s="2" t="s">
         <v>32</v>
@@ -22507,16 +22549,16 @@
         <v>498</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>374</v>
+        <v>58</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>490</v>
+        <v>59</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>491</v>
+        <v>60</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>491</v>
+        <v>60</v>
       </c>
       <c r="J302" s="2" t="s">
         <v>28</v>
@@ -22531,10 +22573,10 @@
         <v>30</v>
       </c>
       <c r="N302" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="O302" s="2" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="P302" s="2" t="s">
         <v>32</v>
@@ -22575,16 +22617,16 @@
         <v>498</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="J303" s="2" t="s">
         <v>28</v>
@@ -22599,10 +22641,10 @@
         <v>30</v>
       </c>
       <c r="N303" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="P303" s="2" t="s">
         <v>32</v>
@@ -22614,7 +22656,7 @@
         <v>32</v>
       </c>
       <c r="S303" s="2" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="T303" s="2" t="s">
         <v>32</v>
@@ -22637,22 +22679,22 @@
         <v>22</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>68</v>
+        <v>358</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>69</v>
+        <v>536</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>70</v>
+        <v>537</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>71</v>
+        <v>538</v>
       </c>
       <c r="J304" s="2" t="s">
         <v>28</v>
@@ -22670,7 +22712,7 @@
         <v>44</v>
       </c>
       <c r="O304" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="P304" s="2" t="s">
         <v>32</v>
@@ -22705,22 +22747,22 @@
         <v>22</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="J305" s="2" t="s">
         <v>28</v>
@@ -22735,10 +22777,10 @@
         <v>30</v>
       </c>
       <c r="N305" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="O305" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="P305" s="2" t="s">
         <v>32</v>
@@ -22773,60 +22815,468 @@
         <v>22</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F306" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O306" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V306" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O307" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U307" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V307" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O308" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U308" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U309" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="O310" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U310" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O311" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U311" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F312" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G306" s="1" t="s">
+      <c r="G312" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H306" s="1" t="s">
+      <c r="H312" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I306" s="1" t="s">
+      <c r="I312" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K306" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L306" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M306" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N306" s="2" t="s">
+      <c r="J312" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N312" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T306" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U306" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V306" s="2" t="s">
+      <c r="O312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U312" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V312" s="2" t="s">
         <v>32</v>
       </c>
     </row>
